--- a/Datascraping/output_excel_files_new/National Institute of Technology Tiruchirappalli_tables.xlsx
+++ b/Datascraping/output_excel_files_new/National Institute of Technology Tiruchirappalli_tables.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,32 +520,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PG [2 Year Program(s)]</t>
+          <t>UG [5 Years Program(s)]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>57</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>46</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -563,42 +563,85 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>PG [2 Year Program(s)]</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>(All programs of all years)</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>No. of Male Students</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>No. of Female Students</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Total Students</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Within State (Including male &amp; female)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Outside State (Including male &amp; female)</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Outside Country@@ -606,7 +649,7 @@
 &amp; female)</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Economically Backward@@ -614,7 +657,7 @@
 &amp; female)</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Socially Challenged@@ -623,7 +666,7 @@
 &amp; female)</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>No. of students receiving full@@ -634,7 +677,7 @@
 Government</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>No. of students receiving full@@ -644,7 +687,7 @@
 Funds</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>No. of students receiving full@@ -654,7 +697,7 @@
 Bodies</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>No. of students who are not@@ -664,112 +707,194 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>UG [5 Years+Program(s)]</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>PG [2 Year Program(s)]</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>133</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>136</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>132</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Academic Year</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>No. of first year students intake in the year</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>No. of first year students admitted in the year</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Academic Year</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>No. of students graduating in minimum-stipulated time</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>No. of students+admitted through+Lateral entry</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Academic Year</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>No. of students+graduating in+minimum stipulated+time</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>No. of students placed</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>Median salary of placed graduates per@@ -777,114 +902,13 @@
 Rs.)</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>No. of students selected for Higher Studies</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2018-19</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2019-20</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>750000(RUPEES-SEVEN LAKHS AND-FIFTY THOUSAND-ONLY)</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2019-20</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>675000(Six Lakh-Seventy Five-Thousand)</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
@@ -892,47 +916,55 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>2015-16</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>2016-17</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>760000(Seven Lakh-Sixty Thousand)</t>
+          <t>38</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>600000(RUPEES SIX+LAKHS ONLY)</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -940,37 +972,111 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ph.D (Student pursuing doctoral program till 2021-22)</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+          <t>2016-17</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2017-18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>600000(RUPEES SIX+LAKHS ONLY)</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2017-18</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Total Students</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2018-19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2021-22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>600000(RUPEES SIX+LAKHS ONLY)</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
@@ -978,20 +1084,55 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Academic Year</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+          <t>No. of first year+students intake in the+year</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>No. of first year+students admitted in+the year</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Academic Year</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>No. of students graduating in minimum+stipulated time</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>No. of students+placed</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Median salary of+placed graduates per+annum(Amount in+Rs.)</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>No. of students+selected for Higher+Studies</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -1001,20 +1142,46 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Part Time</t>
+          <t>2018-19</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>550000(RUPEES FIVE+LAKHS AND FIFTY+THOUSAND ONLY)</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -1024,16 +1191,45 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>No. of Ph.D students graduated (including Integrated Ph.D)</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>600000(RUPEES SIX+LAKHS ONLY)</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -1041,26 +1237,48 @@
       <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>2021-22</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2019-20</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>550000(RUPEES FIVE+LAKHS AND FIFTY+THOUSAND ONLY)</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -1070,22 +1288,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Financial Year</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -1099,24 +1317,20 @@
       <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Part Time</t>
-        </is>
-      </c>
+      <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -1132,24 +1346,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Financial Year</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2021-22</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2019-20</t>
-        </is>
-      </c>
+          <t>Annual Capital Expenditure on Academic Activities and Resources (excluding expenditure on buildings)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -1161,20 +1363,27 @@
       <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Library</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Utilised Amount</t>
+          <t>500714 (RUPEES FIVE LAKH SEVEN HUNDRED AND+FOURTEEN ONLY)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Utilised Amount</t>
+          <t>275620 (RUPEES TWO LAKHS SEVENTY FIVE THOUSAND+SIX HUNDRED AND TWENTY ONLY)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Utilised Amount</t>
+          <t>1662000 (RUPEES SIXTEEN LAKHS AND SIXTY TWO+THOUSAND ONLY)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -1190,12 +1399,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Annual Capital Expenditure on Academic Activities and Resources (excluding expenditure on buildings)</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+          <t>New Equipment for Laboratories</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>3240200 (RUPEES THIRTY TWO LAKH FORTY THOUSAND+AND TWO HUNDRED ONLY)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>5408000 (RUPEES FIFTY FOUR LAKHS AND EIGHT+THOUSAND ONLY)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2585000 (RUPEES TWENTY FIVE LAKHS AND EIGHTY FIVE+THOUSAND ONLY)</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1209,25 +1433,23 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Library ( Books, Journals and e-Resources only)</t>
+          <t>Studios</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>161152 (RUPEES ONE LAKH SIXTY ONE THOUSAND ONE-HUNDRED AND FIFTY TWO ONLY)</t>
+          <t>675000 (RUPEES SIX LAKH AND SEVENTY FIVE+THOUSAND ONLY)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>191085 (RUPEES ONE LAKH NINETY ONE THOUSAND AND-EIGHTY FIVE ONLY)</t>
+          <t>0 (Zero)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3246000 (RUPEES THIRTY TWO LAKHS AND FOURTY SIX-THOUSAND ONLY)</t>
+          <t>0 (Zero)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1243,25 +1465,26 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Expenditure on setting up/upgradation of laboratory</t>
+          <t>Other expenditure on creation of Capital Assets (excluding+expenditure on Land and Building)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1193000 (RUPEES ELEVEN LAKH AND NINETY THREE-THOUSAND ONLY )</t>
+          <t>17839058 (RUPEES ONE CRORE SEVENTY EIGHT LAKH+THIRTY NINE THOUSAND AND FIFTY EIGHT ONLY)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2817000 (RUPEES TWENTY EIGHT LAKHS SEVENTEEN-THOUSAND ONLY)</t>
+          <t>16731839 (RUPEES ONE CRORE SIXTY SEVEN LAKHS+THIRTY ONE THOUSAND EIGHT HUNDRED AND THIRTY+NINE ONLY)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1204000 (RUPEES TWELVE LAKHS AND FOUR THOUSAND-ONLY)</t>
+          <t>60000 (RUPEES SIXTY THOUSAND ONLY)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1277,26 +1500,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Other expenditure on creation of Capital Assets (For setting up-classrooms, seminar hall, conference hall , library excluding-expenditure on Land ,Building, Roads etc.)</t>
+          <t>Financial Year</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>12989605 (RUPEES ONE CRORE TWENTY NINE LAKH-EIGHTY NINE THOUSAND SIX HUNDRED AND FIVE ONLY)</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>11600029 (RUPEES ONE CRORE SIXTEEN LAKHS AND-TWENTY NINE ONLY)</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>60000 (RUPEES SIXTY THOUSAND ONLY)</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1310,24 +1529,20 @@
       <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Financial Year</t>
-        </is>
-      </c>
+      <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -1341,22 +1556,14 @@
       <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Utilised Amount</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Utilised Amount</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Utilised Amount</t>
-        </is>
-      </c>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Annual Operational Expenditure</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -1370,12 +1577,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Annual Operational Expenditure</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
+          <t>Salaries (Teaching and Non Teaching staff)</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>40179080 (RUPEES FOUR CRORE ONE LAKH SEVENTY+NINE THOUSAND AND EIGHTY ONLY)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>35061969 (RUPEES THREE CRORES FIFTY LAKHS SIXTY+ONE THOUSAND NINE HUNDRED AND SIXTY NINE ONLY)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>31410250 (RUPEES THREE CRORES FOURTEEN LAKHS+TEN THOUSAND TWO HUNDRED AND FIFTY ONLY)</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1389,27 +1611,30 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Salaries (Teaching and Non Teaching staff)</t>
+          <t>Maintenance of Academic Infrastructure or consumables and+other running expenditures(excluding maintenance of hostels+and allied services,rent of the building, depreciation cost, etc)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>33518918 (RUPEES THREE CRORE THIRTY FIVE LAKH-EIGHTEEN THOUSAND NINE HUNDRED AND EIGHTEEN+          <t>25473135 (RUPEES TWO CRORE FIFTY FOUR LAKH+SEVENTY THREE THOUSAND ONE HUNDRED AND+THIRTY FIVE ONLY)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>22734856 (RUPEES TWO CRORES TWENTY SEVEN LAKHS+THIRTY FOUR THOUSAND EIGHT HUNDRED AND FIFTY+SIX ONLY)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>27490197 (RUPEES TWO CRORES SEVENTY FOUR LAKHS+NINETY THOUSAND ONE HUNDRED AND NINETY SEVEN ONLY)</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>27868738 (RUPEES TWO CRORES SEVENTY EIGHT-LAKHS SIXTY EIGHT THOUSAND SEVEN HUNDRED AND-THIRTY EIGHT ONLY)</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>20992050 (RUPEES TWO CRORES NINE LAKHS NINETY-TWO THOUSAND AND FIFTY ONLY)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -1425,29 +1650,23 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Maintenance of Academic Infrastructure or consumables and-other running expenditures(excluding maintenance of hostels-and allied services,rent of the building, depreciation cost, etc)</t>
+          <t>Seminars/Conferences/Workshops</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>18548398 (RUPEES ONE CRORE EIGHTY FIVE LAKH-FORTY EIGHT THOUSAND THREE HUNDRED AND NINETY-EIGHT ONLY)</t>
+          <t>468927 (RUPEES FOUR LAKH SIXTY EIGHT THOUSAND+NINE HUNDRED AND TWENTY SEVEN ONLY)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>15761865 (RUPEES ONE CRORE FIFTY SEVEN LAKHS-SIXTY ONE THOUSAND EIGHT HUNDRED AND SIXTY FIVE-ONLY)</t>
+          <t>0 (Zero)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>19320034 (RUPEES ONE CRORE NINETY THREE LAKHS-TWENTY THOUSAND AND THIRTY FOUR ONLY)</t>
+          <t>0 (Zero)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -1463,23 +1682,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Seminars/Conferences/Workshops</t>
+          <t>Financial Year</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>341452 (RUPEES THREE LAKH FORTY ONE THOUSAND-FOUR HUNDRED AND FIFTY TWO ONLY)</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0 (Zero)</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0 (Zero)</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -1495,22 +1713,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>Total no. of Sponsored Projects</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -1526,7 +1744,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Total no. of Sponsored Projects</t>
+          <t>Total no. of Funding Agencies</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1541,7 +1759,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -1557,7 +1775,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Total no. of Funding Agencies</t>
+          <t>Total Amount Received (Amount in Rupees)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1572,7 +1790,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>651000</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -1588,22 +1806,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Total Amount Received (Amount in Rupees)</t>
+          <t>Amount Received in Words</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Zero</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Zero</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>RUPEES SIX LAKHS AND FIFTY ONE THOUSAND ONLY</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -1619,22 +1837,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Amount Received in Words</t>
+          <t>Financial Year</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Zero</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Zero</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Zero</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -1650,22 +1868,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>Total no. of Consultancy Projects</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -1681,17 +1899,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Total no. of Consultancy Projects</t>
+          <t>Total no. of Client Organizations</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1712,17 +1930,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Total no. of Client Organizations</t>
+          <t>Total Amount Received (Amount in Rupees)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>55000</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>500000</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1743,22 +1961,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Total Amount Received (Amount in Rupees)</t>
+          <t>Amount Received in Words</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>50000</t>
+          <t>RUPEES FIFTY FIVE THOUSAND ONLY</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1370125</t>
+          <t>RUPEES FIVE LAKHS ONLY</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Zero</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -1774,25 +1992,16 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Amount Received in Words</t>
+          <t>1. Do your institution buildings have Lifts/Ramps?</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>RUPEES FIFTY THOUSAND ONLY</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>RUPEES THIRTEEN LAKHS SEVENTY THOUSAND ONE-HUNDRED AND TWENTY FIVE ONLY</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Zero</t>
-        </is>
-      </c>
+          <t>Yes, more than 80% of the buildings</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
@@ -1806,27 +2015,20 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Financial Year</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>2021-22</t>
-        </is>
-      </c>
+          <t>2. Do your institution have provision for walking aids, including wheelchairs and transportation from one building to another for+handicapped students?</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
-      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>2019-20</t>
-        </is>
-      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1837,26 +2039,18 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Total no. of Executive Development Programs/ Management</t>
+          <t>3. Do your institution buildings have specially designed toilets for handicapped students?</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Yes, more than 80% of the buildings</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
@@ -1868,10 +2062,14 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Development Programs</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
+          <t>Number of faculty members entered</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
@@ -1884,225 +2082,6 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Total no. of Participants</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>652</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Total Annual Earnings (Amount in Rupees)(Excluding Lodging</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>8643460</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>&amp; Boarding Charges)</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Total Annual Earnings in Words</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Zero</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Zero</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>RUPEES EIGHTY SIX LAKHS FORTY THREE THOUSAND</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr"/>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>FOUR HUNDRED AND SIXTY ONLY</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>1. Do your institution buildings have Lifts/Ramps?</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Yes, more than 80% of the buildings</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>2. Do your institution have provision for walking aids, including wheelchairs and transportation from one building to another for</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>handicapped students?</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>3. Do your institution buildings have specially designed toilets for handicapped students?</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Yes, more than 80% of the buildings</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
